--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8437F24-B0A3-4C7D-A92F-A766A1E5B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFF626-140C-465C-8131-44B50AF9F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="12630" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>brv</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t xml:space="preserve">if  R[rs] &lt;= 0,  branch to to PC-relative address (formed as beq &amp; bne do), link address is stored in register 25. </t>
+  </si>
+  <si>
+    <t>31        26</t>
+  </si>
+  <si>
+    <t>25        21</t>
+  </si>
+  <si>
+    <t>20         16</t>
+  </si>
+  <si>
+    <t>15      11</t>
+  </si>
+  <si>
+    <t>10     6</t>
+  </si>
+  <si>
+    <t>5    0</t>
   </si>
 </sst>
 </file>
@@ -502,7 +520,7 @@
   <dimension ref="A4:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,12 +542,24 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFF626-140C-465C-8131-44B50AF9F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968A20B-6781-40CD-8750-2BA1262D7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A4:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968A20B-6781-40CD-8750-2BA1262D7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE9C00F-7C73-40E2-AD01-3AC9EFD85C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
   <si>
     <t>brv</t>
   </si>
@@ -77,9 +77,6 @@
     <t>100010</t>
   </si>
   <si>
-    <t xml:space="preserve"> if Status [V] = 1, branches to address found in register $rs. </t>
-  </si>
-  <si>
     <t>immediate</t>
   </si>
   <si>
@@ -116,15 +113,6 @@
     <t>011011</t>
   </si>
   <si>
-    <t xml:space="preserve"> jumps to address found in memory [$rs XOR $rt], link address is stored in $31 </t>
-  </si>
-  <si>
-    <t>Put the logical NOR of register $rs and the zero-extended immediate into register $rt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if  R[rs] &lt;= 0,  branch to to PC-relative address (formed as beq &amp; bne do), link address is stored in register 25. </t>
-  </si>
-  <si>
     <t>31        26</t>
   </si>
   <si>
@@ -141,13 +129,148 @@
   </si>
   <si>
     <t>5    0</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>R-Type</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>ALUOp</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>ALU function</t>
+  </si>
+  <si>
+    <t>ALU control</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>load word</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>store word</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>branh equal</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>set on less than</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>101010</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check v=1 and jump </t>
+  </si>
+  <si>
+    <t>XOR and jump,store return $31</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ALUOp1</t>
+  </si>
+  <si>
+    <t>ALUOp2</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +279,41 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,16 +321,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,18 +831,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
-  <dimension ref="A4:L32"/>
+  <dimension ref="A4:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -537,262 +860,654 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="K6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="K9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="J12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="M14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="N14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="M15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -801,12 +1516,14 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -815,218 +1532,81 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE9C00F-7C73-40E2-AD01-3AC9EFD85C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E816CE5E-17FA-4E1D-9416-A61738BCB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="80">
   <si>
     <t>brv</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>F0</t>
+  </si>
+  <si>
+    <t>nor immediate</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,36 +435,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -473,10 +466,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,7 +478,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +487,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -833,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
   <dimension ref="A4:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,31 +877,31 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -915,49 +926,49 @@
       <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="10" t="s">
+      <c r="S5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -985,46 +996,46 @@
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="10" t="s">
+      <c r="S6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1033,67 +1044,67 @@
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="9" t="s">
+      <c r="R7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1102,122 +1113,122 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="9" t="s">
+      <c r="R8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="X8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="24" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="9" t="s">
+      <c r="R9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Y9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1233,54 +1244,54 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="24" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="J10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U10" s="9" t="s">
+      <c r="R10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="X10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1289,63 +1300,63 @@
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="J11" s="24" t="s">
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" s="18" t="s">
+      <c r="R11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Y11" s="32" t="s">
+      <c r="Y11" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1354,36 +1365,36 @@
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="J12" s="24" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="J12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1392,64 +1403,60 @@
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="J13" s="24" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="J14" s="24" t="s">
+      <c r="B14" s="10"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="20" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1459,53 +1466,65 @@
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="28" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="J15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1599,12 +1618,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D16:H16"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E816CE5E-17FA-4E1D-9416-A61738BCB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFE276-1088-4AAE-BDAE-82333212784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="94">
   <si>
     <t>brv</t>
   </si>
@@ -276,6 +276,48 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>RegDst</t>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+  </si>
+  <si>
+    <t>MemtoReg</t>
+  </si>
+  <si>
+    <t>RegWrite</t>
+  </si>
+  <si>
+    <t>MemRead</t>
+  </si>
+  <si>
+    <t>MemWrite</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>ALUOp0</t>
+  </si>
+  <si>
+    <t>R-Format</t>
+  </si>
+  <si>
+    <t>noriControl</t>
+  </si>
+  <si>
+    <t>blezalControl</t>
+  </si>
+  <si>
+    <t>jalpcControl</t>
+  </si>
+  <si>
+    <t>balnControl</t>
   </si>
 </sst>
 </file>
@@ -299,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,6 +535,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,13 +556,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -842,17 +905,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
-  <dimension ref="A4:Y27"/>
+  <dimension ref="A4:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="2"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="2"/>
+    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
@@ -1244,11 +1310,11 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
       <c r="J10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1309,11 +1375,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1374,11 +1440,11 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="J12" s="17" t="s">
         <v>34</v>
       </c>
@@ -1412,11 +1478,11 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
       <c r="J13" s="17" t="s">
         <v>34</v>
       </c>
@@ -1466,13 +1532,13 @@
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="J15" s="21" t="s">
         <v>34</v>
       </c>
@@ -1500,17 +1566,17 @@
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="25" t="s">
         <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1522,7 +1588,7 @@
       <c r="N16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1554,67 +1620,300 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="B24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="B25" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="32"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="B26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="B27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFE276-1088-4AAE-BDAE-82333212784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4456F-E378-4B3C-9B42-E8180072F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="1380" yWindow="1950" windowWidth="21600" windowHeight="13380" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>brv</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>balnControl</t>
+  </si>
+  <si>
+    <t>brvControl</t>
+  </si>
+  <si>
+    <t>jmxorControl</t>
+  </si>
+  <si>
+    <t>branch if v=1</t>
+  </si>
+  <si>
+    <t>xor and jump</t>
+  </si>
+  <si>
+    <t>100001</t>
   </si>
 </sst>
 </file>
@@ -538,6 +553,18 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,18 +584,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
-  <dimension ref="A4:Y28"/>
+  <dimension ref="A4:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +940,9 @@
     <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="32.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="13.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1310,11 +1327,11 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="J10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1375,11 +1392,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
       <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1440,11 +1457,11 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
       <c r="J12" s="17" t="s">
         <v>34</v>
       </c>
@@ -1478,11 +1495,11 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="J13" s="17" t="s">
         <v>34</v>
       </c>
@@ -1532,13 +1549,13 @@
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="J15" s="21" t="s">
         <v>34</v>
       </c>
@@ -1566,13 +1583,13 @@
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1601,14 +1618,18 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1617,303 +1638,426 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="14" t="s">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L25" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M25" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N25" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="O19" s="36" t="s">
+      <c r="O25" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
+      <c r="P25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="C26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="C27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="C28" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
+      <c r="C29" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ensar\Desktop\mips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4456F-E378-4B3C-9B42-E8180072F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF94F44C-0293-4611-9012-36BBF6D8279B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1950" windowWidth="21600" windowHeight="13380" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="101">
   <si>
     <t>brv</t>
   </si>
@@ -326,13 +326,19 @@
     <t>jmxorControl</t>
   </si>
   <si>
-    <t>branch if v=1</t>
-  </si>
-  <si>
-    <t>xor and jump</t>
-  </si>
-  <si>
-    <t>100001</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>BLEZAL</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>slt olabilir</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,9 +587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -922,30 +925,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
   <dimension ref="A4:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="10.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -988,7 +991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1055,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
@@ -1122,7 +1125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>0</v>
@@ -1191,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
@@ -1260,7 +1263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
@@ -1315,7 +1318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
@@ -1378,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1443,7 +1446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
@@ -1481,7 +1484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -1519,7 +1522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="G14" s="1"/>
@@ -1543,7 +1546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
@@ -1575,7 +1578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
@@ -1609,7 +1612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1619,17 +1622,21 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1638,26 +1645,19 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
@@ -1707,320 +1707,468 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="9"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>65</v>

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ensar\Desktop\mips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF94F44C-0293-4611-9012-36BBF6D8279B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD315CCC-996B-4F69-AB80-4E8629B3D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
   <si>
     <t>brv</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>slt olabilir</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>control unit için</t>
+  </si>
+  <si>
+    <t>alu control için</t>
   </si>
 </sst>
 </file>
@@ -362,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +399,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,6 +608,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,30 +958,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
   <dimension ref="A4:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2"/>
-    <col min="10" max="10" width="10.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -957,7 +990,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -991,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1058,7 +1093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
@@ -1125,7 +1160,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>0</v>
@@ -1194,7 +1229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
@@ -1263,7 +1298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
@@ -1318,7 +1353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
@@ -1381,7 +1416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1446,7 +1481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
@@ -1484,7 +1519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -1522,7 +1557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="G14" s="1"/>
@@ -1546,7 +1581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
@@ -1569,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>62</v>
@@ -1578,7 +1613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
@@ -1612,7 +1647,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1636,7 +1671,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1651,13 +1686,18 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
@@ -1707,11 +1747,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="36" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1720,7 +1760,7 @@
       <c r="E26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1732,7 +1772,7 @@
       <c r="I26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="36" t="s">
         <v>65</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1757,23 +1797,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="D27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>65</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1807,14 +1847,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="36" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1826,7 +1866,7 @@
       <c r="G28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="36" t="s">
         <v>65</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1857,7 +1897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -1879,13 +1919,13 @@
       <c r="H29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="36" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="36" t="s">
         <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -1907,20 +1947,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="36" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1932,13 +1972,13 @@
       <c r="I30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="J30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="36" t="s">
         <v>65</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -1957,7 +1997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>17</v>
       </c>
@@ -1970,7 +2010,7 @@
       <c r="E31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1982,16 +2022,16 @@
       <c r="I31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="36" t="s">
         <v>65</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -2007,7 +2047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2060,7 @@
       <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2044,7 +2084,7 @@
       <c r="M32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="36" t="s">
         <v>65</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -2057,7 +2097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2110,7 @@
       <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2097,7 +2137,7 @@
       <c r="N33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="36" t="s">
         <v>65</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -2107,7 +2147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2172,7 @@
       <c r="I34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="36" t="s">
         <v>65</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -2150,14 +2190,14 @@
       <c r="O34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="36" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +2210,7 @@
       <c r="E35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -2182,7 +2222,7 @@
       <c r="I35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="37" t="s">
         <v>65</v>
       </c>
       <c r="K35" s="12" t="s">
@@ -2203,7 +2243,7 @@
       <c r="P35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="38" t="s">
         <v>65</v>
       </c>
     </row>

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD315CCC-996B-4F69-AB80-4E8629B3D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC0795B-9B5F-4EB0-A741-C12847D02447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -592,6 +592,18 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,18 +620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
   <dimension ref="A4:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>33</v>
@@ -1365,11 +1365,11 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="J10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1430,11 +1430,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="J12" s="17" t="s">
         <v>34</v>
       </c>
@@ -1533,11 +1533,11 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="J13" s="17" t="s">
         <v>34</v>
       </c>
@@ -1587,13 +1587,13 @@
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
       <c r="J15" s="21" t="s">
         <v>34</v>
       </c>
@@ -1621,13 +1621,13 @@
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1760,7 +1760,7 @@
       <c r="E26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1772,7 +1772,7 @@
       <c r="I26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="30" t="s">
         <v>65</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1804,16 +1804,16 @@
       <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="36" t="s">
+      <c r="D27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1854,7 +1854,7 @@
       <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1866,7 +1866,7 @@
       <c r="G28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="30" t="s">
         <v>65</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1919,13 +1919,13 @@
       <c r="H29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="30" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="30" t="s">
         <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -1954,13 +1954,13 @@
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1972,13 +1972,13 @@
       <c r="I30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="36" t="s">
+      <c r="J30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="30" t="s">
         <v>65</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -2010,7 +2010,7 @@
       <c r="E31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2022,16 +2022,16 @@
       <c r="I31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="33" t="s">
         <v>97</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="36" t="s">
+      <c r="M31" s="30" t="s">
         <v>65</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -2060,7 +2060,7 @@
       <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2084,7 +2084,7 @@
       <c r="M32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="30" t="s">
         <v>65</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -2110,7 +2110,7 @@
       <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2137,7 +2137,7 @@
       <c r="N33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="30" t="s">
         <v>65</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -2172,7 +2172,7 @@
       <c r="I34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="30" t="s">
         <v>65</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -2190,7 +2190,7 @@
       <c r="O34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="30" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="9" t="s">
@@ -2210,7 +2210,7 @@
       <c r="E35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="31" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -2222,7 +2222,7 @@
       <c r="I35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="31" t="s">
         <v>65</v>
       </c>
       <c r="K35" s="12" t="s">
@@ -2243,7 +2243,7 @@
       <c r="P35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="38" t="s">
+      <c r="Q35" s="32" t="s">
         <v>65</v>
       </c>
     </row>

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC0795B-9B5F-4EB0-A741-C12847D02447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71790B0-4C85-420C-A12C-AAC3580075CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="12480" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="105">
   <si>
     <t>brv</t>
   </si>
@@ -335,9 +335,6 @@
     <t>BLEZAL</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>slt olabilir</t>
   </si>
   <si>
@@ -348,6 +345,12 @@
   </si>
   <si>
     <t>alu control için</t>
+  </si>
+  <si>
+    <t>1xx</t>
+  </si>
+  <si>
+    <t>1111</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
   <dimension ref="A4:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +994,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1250,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>33</v>
@@ -1604,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>62</v>
@@ -1660,16 +1663,18 @@
         <v>98</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1694,7 +1699,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71790B0-4C85-420C-A12C-AAC3580075CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02C831-8FBF-4D4F-BF0B-2E8CECF95F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="12480" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="4350" yWindow="1920" windowWidth="21600" windowHeight="12480" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="104">
   <si>
     <t>brv</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>BLEZAL</t>
@@ -374,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,12 +405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,9 +595,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,6 +611,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -961,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
   <dimension ref="A4:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +985,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1253,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>33</v>
@@ -1368,11 +1359,11 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
       <c r="J10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1433,11 +1424,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1498,11 +1489,11 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="J12" s="17" t="s">
         <v>34</v>
       </c>
@@ -1536,11 +1527,11 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
       <c r="J13" s="17" t="s">
         <v>34</v>
       </c>
@@ -1590,13 +1581,13 @@
       <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
       <c r="J15" s="21" t="s">
         <v>34</v>
       </c>
@@ -1607,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>62</v>
@@ -1624,13 +1615,13 @@
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +1641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1660,23 +1651,23 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1691,18 +1682,18 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
@@ -1728,31 +1719,34 @@
         <v>87</v>
       </c>
       <c r="J25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="L25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="M25" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="N25" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="O25" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="O25" s="28" t="s">
+      <c r="P25" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="28" t="s">
+      <c r="Q25" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="R25" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
@@ -1777,11 +1771,11 @@
       <c r="I26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>66</v>
+      <c r="J26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>66</v>
@@ -1801,8 +1795,11 @@
       <c r="Q26" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -1851,8 +1848,11 @@
       <c r="Q27" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -1901,8 +1901,11 @@
       <c r="Q28" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -1927,14 +1930,14 @@
       <c r="I29" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>66</v>
+      <c r="J29" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>66</v>
@@ -1951,8 +1954,11 @@
       <c r="Q29" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
@@ -1977,8 +1983,8 @@
       <c r="I30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="30" t="s">
-        <v>65</v>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>65</v>
@@ -1986,8 +1992,8 @@
       <c r="L30" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>66</v>
+      <c r="M30" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>66</v>
@@ -1998,11 +2004,14 @@
       <c r="P30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>17</v>
       </c>
@@ -2027,20 +2036,20 @@
       <c r="I31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>66</v>
+      <c r="J31" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>66</v>
@@ -2048,11 +2057,14 @@
       <c r="P31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q31" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>19</v>
       </c>
@@ -2078,31 +2090,34 @@
         <v>66</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>66</v>
+      <c r="N32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
@@ -2128,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>66</v>
@@ -2142,17 +2157,20 @@
       <c r="N33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O33" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>0</v>
       </c>
@@ -2177,11 +2195,11 @@
       <c r="I34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>66</v>
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>66</v>
@@ -2195,14 +2213,17 @@
       <c r="O34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
         <v>11</v>
       </c>
@@ -2227,11 +2248,11 @@
       <c r="I35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>66</v>
+      <c r="J35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>66</v>
@@ -2248,7 +2269,10 @@
       <c r="P35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="32" t="s">
+      <c r="Q35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" s="32" t="s">
         <v>65</v>
       </c>
     </row>

--- a/instrucitons.xlsx
+++ b/instrucitons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\University\DataPath---CSE-3038-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02C831-8FBF-4D4F-BF0B-2E8CECF95F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC4DDD-3A45-43D6-8C68-EE591089400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1920" windowWidth="21600" windowHeight="12480" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51791857-30F8-4E61-A5BF-5EA7055FA251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,9 +611,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -952,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8558FA9-F41A-4C66-A0E1-9ACDDCC3A203}">
   <dimension ref="A4:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1927,7 @@
       <c r="I29" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -2039,10 +2036,10 @@
       <c r="J31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" s="39" t="s">
+      <c r="K31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="M31" s="1" t="s">
